--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.73119922575031</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H2">
-        <v>5.73119922575031</v>
+        <v>33.748769</v>
       </c>
       <c r="I2">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J2">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.4967225999056</v>
+        <v>2.219727</v>
       </c>
       <c r="N2">
-        <v>11.4967225999056</v>
+        <v>6.659181</v>
       </c>
       <c r="O2">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="P2">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="Q2">
-        <v>65.89000766324507</v>
+        <v>24.971017922021</v>
       </c>
       <c r="R2">
-        <v>65.89000766324507</v>
+        <v>224.739161298189</v>
       </c>
       <c r="S2">
-        <v>0.01946368146647575</v>
+        <v>0.006185509665534454</v>
       </c>
       <c r="T2">
-        <v>0.01946368146647575</v>
+        <v>0.006185509665534454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.73119922575031</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H3">
-        <v>5.73119922575031</v>
+        <v>33.748769</v>
       </c>
       <c r="I3">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J3">
-        <v>0.02527616877535021</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.43329468891587</v>
+        <v>11.50585933333333</v>
       </c>
       <c r="N3">
-        <v>3.43329468891587</v>
+        <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778302</v>
       </c>
       <c r="P3">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778303</v>
       </c>
       <c r="Q3">
-        <v>19.67689586288729</v>
+        <v>129.4361962623869</v>
       </c>
       <c r="R3">
-        <v>19.67689586288729</v>
+        <v>1164.925766361482</v>
       </c>
       <c r="S3">
-        <v>0.005812487308874457</v>
+        <v>0.03206232303189227</v>
       </c>
       <c r="T3">
-        <v>0.005812487308874457</v>
+        <v>0.03206232303189227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>207.313750010913</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H4">
-        <v>207.313750010913</v>
+        <v>33.748769</v>
       </c>
       <c r="I4">
-        <v>0.914310797499904</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J4">
-        <v>0.914310797499904</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.4967225999056</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="N4">
-        <v>11.4967225999056</v>
+        <v>0.032</v>
       </c>
       <c r="O4">
-        <v>0.7700408095651385</v>
+        <v>0.0006172643158013742</v>
       </c>
       <c r="P4">
-        <v>0.7700408095651385</v>
+        <v>0.0006172643158013743</v>
       </c>
       <c r="Q4">
-        <v>2383.428675021643</v>
+        <v>0.1199956231111111</v>
       </c>
       <c r="R4">
-        <v>2383.428675021643</v>
+        <v>1.079960608</v>
       </c>
       <c r="S4">
-        <v>0.7040566267009735</v>
+        <v>2.972382178785988E-05</v>
       </c>
       <c r="T4">
-        <v>0.7040566267009735</v>
+        <v>2.972382178785988E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>207.313750010913</v>
+        <v>11.24958966666667</v>
       </c>
       <c r="H5">
-        <v>207.313750010913</v>
+        <v>33.748769</v>
       </c>
       <c r="I5">
-        <v>0.914310797499904</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="J5">
-        <v>0.914310797499904</v>
+        <v>0.04815412300202451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.43329468891587</v>
+        <v>3.544296666666666</v>
       </c>
       <c r="N5">
-        <v>3.43329468891587</v>
+        <v>10.63289</v>
       </c>
       <c r="O5">
-        <v>0.2299591904348614</v>
+        <v>0.2051032365887898</v>
       </c>
       <c r="P5">
-        <v>0.2299591904348614</v>
+        <v>0.2051032365887898</v>
       </c>
       <c r="Q5">
-        <v>711.7691968517</v>
+        <v>39.87188315693444</v>
       </c>
       <c r="R5">
-        <v>711.7691968517</v>
+        <v>358.84694841241</v>
       </c>
       <c r="S5">
-        <v>0.2102541707989304</v>
+        <v>0.009876566482809919</v>
       </c>
       <c r="T5">
-        <v>0.2102541707989304</v>
+        <v>0.009876566482809919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.93170677142823</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H6">
-        <v>2.93170677142823</v>
+        <v>624.813553</v>
       </c>
       <c r="I6">
-        <v>0.01292963518377007</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J6">
-        <v>0.01292963518377007</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.4967225999056</v>
+        <v>2.219727</v>
       </c>
       <c r="N6">
-        <v>11.4967225999056</v>
+        <v>6.659181</v>
       </c>
       <c r="O6">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="P6">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="Q6">
-        <v>33.70501949537521</v>
+        <v>462.305171186677</v>
       </c>
       <c r="R6">
-        <v>33.70501949537521</v>
+        <v>4160.746540680093</v>
       </c>
       <c r="S6">
-        <v>0.009956346744292204</v>
+        <v>0.1145164812156089</v>
       </c>
       <c r="T6">
-        <v>0.009956346744292204</v>
+        <v>0.1145164812156089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.93170677142823</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H7">
-        <v>2.93170677142823</v>
+        <v>624.813553</v>
       </c>
       <c r="I7">
-        <v>0.01292963518377007</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J7">
-        <v>0.01292963518377007</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.43329468891587</v>
+        <v>11.50585933333333</v>
       </c>
       <c r="N7">
-        <v>3.43329468891587</v>
+        <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778302</v>
       </c>
       <c r="P7">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778303</v>
       </c>
       <c r="Q7">
-        <v>10.06541328780323</v>
+        <v>2396.33895012607</v>
       </c>
       <c r="R7">
-        <v>10.06541328780323</v>
+        <v>21567.05055113463</v>
       </c>
       <c r="S7">
-        <v>0.002973288439477866</v>
+        <v>0.5935912498316707</v>
       </c>
       <c r="T7">
-        <v>0.002973288439477866</v>
+        <v>0.5935912498316707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7665374199996</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H8">
-        <v>10.7665374199996</v>
+        <v>624.813553</v>
       </c>
       <c r="I8">
-        <v>0.04748339854097573</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J8">
-        <v>0.04748339854097573</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.4967225999056</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="N8">
-        <v>11.4967225999056</v>
+        <v>0.032</v>
       </c>
       <c r="O8">
-        <v>0.7700408095651385</v>
+        <v>0.0006172643158013742</v>
       </c>
       <c r="P8">
-        <v>0.7700408095651385</v>
+        <v>0.0006172643158013743</v>
       </c>
       <c r="Q8">
-        <v>123.7798940792387</v>
+        <v>2.221559299555555</v>
       </c>
       <c r="R8">
-        <v>123.7798940792387</v>
+        <v>19.994033696</v>
       </c>
       <c r="S8">
-        <v>0.03656415465339707</v>
+        <v>0.0005502970108335371</v>
       </c>
       <c r="T8">
-        <v>0.03656415465339707</v>
+        <v>0.0005502970108335371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7665374199996</v>
+        <v>208.2711843333333</v>
       </c>
       <c r="H9">
-        <v>10.7665374199996</v>
+        <v>624.813553</v>
       </c>
       <c r="I9">
-        <v>0.04748339854097573</v>
+        <v>0.8915095150431698</v>
       </c>
       <c r="J9">
-        <v>0.04748339854097573</v>
+        <v>0.8915095150431697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.43329468891587</v>
+        <v>3.544296666666666</v>
       </c>
       <c r="N9">
-        <v>3.43329468891587</v>
+        <v>10.63289</v>
       </c>
       <c r="O9">
-        <v>0.2299591904348614</v>
+        <v>0.2051032365887898</v>
       </c>
       <c r="P9">
-        <v>0.2299591904348614</v>
+        <v>0.2051032365887898</v>
       </c>
       <c r="Q9">
-        <v>36.9646957420986</v>
+        <v>738.1748643953521</v>
       </c>
       <c r="R9">
-        <v>36.9646957420986</v>
+        <v>6643.573779558169</v>
       </c>
       <c r="S9">
-        <v>0.01091924388757866</v>
+        <v>0.1828514869850565</v>
       </c>
       <c r="T9">
-        <v>0.01091924388757866</v>
+        <v>0.1828514869850565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.262842333333333</v>
+      </c>
+      <c r="H10">
+        <v>9.788527</v>
+      </c>
+      <c r="I10">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="J10">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.219727</v>
+      </c>
+      <c r="N10">
+        <v>6.659181</v>
+      </c>
+      <c r="O10">
+        <v>0.1284523376175785</v>
+      </c>
+      <c r="P10">
+        <v>0.1284523376175785</v>
+      </c>
+      <c r="Q10">
+        <v>7.242619224043001</v>
+      </c>
+      <c r="R10">
+        <v>65.183573016387</v>
+      </c>
+      <c r="S10">
+        <v>0.001794051462139108</v>
+      </c>
+      <c r="T10">
+        <v>0.001794051462139107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.262842333333333</v>
+      </c>
+      <c r="H11">
+        <v>9.788527</v>
+      </c>
+      <c r="I11">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="J11">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.50585933333333</v>
+      </c>
+      <c r="N11">
+        <v>34.517578</v>
+      </c>
+      <c r="O11">
+        <v>0.6658271614778302</v>
+      </c>
+      <c r="P11">
+        <v>0.6658271614778303</v>
+      </c>
+      <c r="Q11">
+        <v>37.54180491417844</v>
+      </c>
+      <c r="R11">
+        <v>337.876244227606</v>
+      </c>
+      <c r="S11">
+        <v>0.009299388510449058</v>
+      </c>
+      <c r="T11">
+        <v>0.00929938851044906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.262842333333333</v>
+      </c>
+      <c r="H12">
+        <v>9.788527</v>
+      </c>
+      <c r="I12">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="J12">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.032</v>
+      </c>
+      <c r="O12">
+        <v>0.0006172643158013742</v>
+      </c>
+      <c r="P12">
+        <v>0.0006172643158013743</v>
+      </c>
+      <c r="Q12">
+        <v>0.03480365155555556</v>
+      </c>
+      <c r="R12">
+        <v>0.313232864</v>
+      </c>
+      <c r="S12">
+        <v>8.6211272510015E-06</v>
+      </c>
+      <c r="T12">
+        <v>8.621127251001502E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.262842333333333</v>
+      </c>
+      <c r="H13">
+        <v>9.788527</v>
+      </c>
+      <c r="I13">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="J13">
+        <v>0.01396667040408609</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.544296666666666</v>
+      </c>
+      <c r="N13">
+        <v>10.63289</v>
+      </c>
+      <c r="O13">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="P13">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="Q13">
+        <v>11.56448120589222</v>
+      </c>
+      <c r="R13">
+        <v>104.08033085303</v>
+      </c>
+      <c r="S13">
+        <v>0.002864609304246917</v>
+      </c>
+      <c r="T13">
+        <v>0.002864609304246917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.83271733333333</v>
+      </c>
+      <c r="H14">
+        <v>32.498152</v>
+      </c>
+      <c r="I14">
+        <v>0.04636969155071965</v>
+      </c>
+      <c r="J14">
+        <v>0.04636969155071963</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>2.219727</v>
+      </c>
+      <c r="N14">
+        <v>6.659181</v>
+      </c>
+      <c r="O14">
+        <v>0.1284523376175785</v>
+      </c>
+      <c r="P14">
+        <v>0.1284523376175785</v>
+      </c>
+      <c r="Q14">
+        <v>24.045675148168</v>
+      </c>
+      <c r="R14">
+        <v>216.411076333512</v>
+      </c>
+      <c r="S14">
+        <v>0.005956295274296017</v>
+      </c>
+      <c r="T14">
+        <v>0.005956295274296015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.83271733333333</v>
+      </c>
+      <c r="H15">
+        <v>32.498152</v>
+      </c>
+      <c r="I15">
+        <v>0.04636969155071965</v>
+      </c>
+      <c r="J15">
+        <v>0.04636969155071963</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.50585933333333</v>
+      </c>
+      <c r="N15">
+        <v>34.517578</v>
+      </c>
+      <c r="O15">
+        <v>0.6658271614778302</v>
+      </c>
+      <c r="P15">
+        <v>0.6658271614778303</v>
+      </c>
+      <c r="Q15">
+        <v>124.6397218350951</v>
+      </c>
+      <c r="R15">
+        <v>1121.757496515856</v>
+      </c>
+      <c r="S15">
+        <v>0.03087420010381819</v>
+      </c>
+      <c r="T15">
+        <v>0.03087420010381818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.83271733333333</v>
+      </c>
+      <c r="H16">
+        <v>32.498152</v>
+      </c>
+      <c r="I16">
+        <v>0.04636969155071965</v>
+      </c>
+      <c r="J16">
+        <v>0.04636969155071963</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.032</v>
+      </c>
+      <c r="O16">
+        <v>0.0006172643158013742</v>
+      </c>
+      <c r="P16">
+        <v>0.0006172643158013743</v>
+      </c>
+      <c r="Q16">
+        <v>0.1155489848888889</v>
+      </c>
+      <c r="R16">
+        <v>1.039940864</v>
+      </c>
+      <c r="S16">
+        <v>2.862235592897572E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.862235592897572E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.83271733333333</v>
+      </c>
+      <c r="H17">
+        <v>32.498152</v>
+      </c>
+      <c r="I17">
+        <v>0.04636969155071965</v>
+      </c>
+      <c r="J17">
+        <v>0.04636969155071963</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.544296666666666</v>
+      </c>
+      <c r="N17">
+        <v>10.63289</v>
+      </c>
+      <c r="O17">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="P17">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="Q17">
+        <v>38.39436393547555</v>
+      </c>
+      <c r="R17">
+        <v>345.54927541928</v>
+      </c>
+      <c r="S17">
+        <v>0.009510573816676459</v>
+      </c>
+      <c r="T17">
+        <v>0.009510573816676457</v>
       </c>
     </row>
   </sheetData>
